--- a/biology/Botanique/Aglaia_(plante)/Aglaia_(plante).xlsx
+++ b/biology/Botanique/Aglaia_(plante)/Aglaia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aglaia est un genre végétal de la famille des Méliacées, qui compte plus de 100 espèces.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres ou arbrisseaux à feuilles caduques, dont les organes aériens sont souvent velus lorsqu'ils sont jeunes. Les feuilles sont généralement composées mais peuvent être simples. Chez les espèces à feuilles composées, imparipennées, les folioles ont une marge entière[1].
-Les inflorescences sont de petits thyrses ayant l'aspect d'une grappe globuleuse de fleurs, qui apparaissent au niveau de bourgeons axillaires. Chaque fleur a un calice constitué de sépales soudés, mais qui présente de 3 à 5 lobes. La corolle est composée de 3 à 5 pétales courts. Les 5 ou 6 (parfois jusqu'à 12) étamines forment un tube parfois relié à la corolle. L'ovaire comprend de 1 à 3 loges (parfois 4), qui contiennent chacune une ou deux graines. Le style est court voire absent ; le stigmate ovoïde ou cylindrique[1].
-Le fruit présente un péricarpe fibreux, contenant souvent du latex. Selon les espèces, il peut être déhiscent ou non. Le loges de l'ovaire ne développent pas toutes des graines, elles sont parfois vides et ne contiennent à maturité qu'une seule graine au maximum. L'endosperme est absent. Les graines sont généralement entourées d'une arille charnue[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou arbrisseaux à feuilles caduques, dont les organes aériens sont souvent velus lorsqu'ils sont jeunes. Les feuilles sont généralement composées mais peuvent être simples. Chez les espèces à feuilles composées, imparipennées, les folioles ont une marge entière.
+Les inflorescences sont de petits thyrses ayant l'aspect d'une grappe globuleuse de fleurs, qui apparaissent au niveau de bourgeons axillaires. Chaque fleur a un calice constitué de sépales soudés, mais qui présente de 3 à 5 lobes. La corolle est composée de 3 à 5 pétales courts. Les 5 ou 6 (parfois jusqu'à 12) étamines forment un tube parfois relié à la corolle. L'ovaire comprend de 1 à 3 loges (parfois 4), qui contiennent chacune une ou deux graines. Le style est court voire absent ; le stigmate ovoïde ou cylindrique.
+Le fruit présente un péricarpe fibreux, contenant souvent du latex. Selon les espèces, il peut être déhiscent ou non. Le loges de l'ovaire ne développent pas toutes des graines, elles sont parfois vides et ne contiennent à maturité qu'une seule graine au maximum. L'endosperme est absent. Les graines sont généralement entourées d'une arille charnue.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres des forêts tropicales et subtropicales du Sud-Est asiatique, du Nord de l'Australie et de la région du Pacifique.
 </t>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains de ces espèces sont des arbres intéressants pour leur bois, d'autres pour leur fruits comestibles, leurs propriétés médicinales ou leur fleurs odorantes.
-Certaines Aglaia possèdent des flavaglines, substances présentant des propriétés insecticides, antifongiques, anti-inflammatoires, neuroprotectrices, cardioprotectrices et surtout anticancéreuses, ces dernières étant les plus étudiées jusqu’à présent[2],[3].
+Certaines Aglaia possèdent des flavaglines, substances présentant des propriétés insecticides, antifongiques, anti-inflammatoires, neuroprotectrices, cardioprotectrices et surtout anticancéreuses, ces dernières étant les plus étudiées jusqu’à présent,.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce genre pose de nombreux problèmes taxinomiques à cause des importantes variations morphologiques, le nombre d'espèces reconnues variant fortement selon le concept d'espèce considéré. La liste ci-dessous est la liste complète des espèces décrites dans ce genre, mais beaucoup (la majorité) sont considérées comme des synonymes par certains auteurs.
 Aglaia abbreviata : (Chine)
